--- a/new_results/results.xlsx
+++ b/new_results/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time_Series_edge_centric_dir_quadratic</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Random Forrests</t>
+  </si>
+  <si>
+    <t>Random_edge_centric_dir_quadratic</t>
+  </si>
+  <si>
+    <t>Random_edge_centric_dir_linear</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -516,6 +522,52 @@
       </c>
       <c r="G5">
         <v>0.49850519999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.48841119999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.49588789999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.51121499999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.49214950000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.51233640000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.49439250000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.51214950000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.4914019</v>
+      </c>
+      <c r="D8">
+        <v>0.51289720000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.49214950000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.51046729999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.49196260000000003</v>
       </c>
     </row>
   </sheetData>
